--- a/CashFlow/CVNA_cashflow.xlsx
+++ b/CashFlow/CVNA_cashflow.xlsx
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>-263321000.0</v>
+        <v>3478000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>-329061000.0</v>
+        <v>3205000000.0</v>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
@@ -608,19 +608,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>202275000.0</v>
+        <v>180904000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>199275000.0</v>
+        <v>231680000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>111575000.0</v>
+        <v>166760000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>131272000.0</v>
+        <v>153912000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>176236000.0</v>
+        <v>144696000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>134249000.0</v>
